--- a/get_tts/tts_per_rf/tts_per_rf_figs/Comparison_Table.xlsx
+++ b/get_tts/tts_per_rf/tts_per_rf_figs/Comparison_Table.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/scdrive2/TTS_2020/get_tts/tts_per_rf/tts_per_rf_figs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06ACA11-CC7C-F346-80AA-B45A28FF2094}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9C890C-60C9-684A-BC8C-AFA96E5DF14F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="22940" windowHeight="14260" xr2:uid="{A3DC752E-61BA-FC41-BD95-3822EA5ED517}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="troposphere tau" sheetId="1" r:id="rId1"/>
+    <sheet name="bl tau  " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
   <si>
     <t xml:space="preserve">Flight </t>
   </si>
@@ -73,6 +74,12 @@
   </si>
   <si>
     <t>Not Sorted</t>
+  </si>
+  <si>
+    <t>BL LIFETIME</t>
+  </si>
+  <si>
+    <t>TROPOSPHERE LIFETIME</t>
   </si>
 </sst>
 </file>
@@ -82,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -92,7 +99,22 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -140,19 +162,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,318 +491,667 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E466F8-008E-B84B-9055-2149322C7832}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B4" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.69</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.68</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G6" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="H6" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>13.1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5">
         <v>2.8</v>
       </c>
-      <c r="I4" s="3">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="H7" s="5">
+        <v>10.3</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
         <v>2.8</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="C8" s="5">
+        <v>10.3</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="G8" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>11.9</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>11.9</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="H9" s="5">
+        <v>13.1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>14.2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="H10" s="5">
+        <v>14.2</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C11" s="5">
+        <v>17.7</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="H11" s="5">
+        <v>14</v>
+      </c>
+      <c r="I11" s="6">
         <v>0.92</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>6</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.91</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="H7" s="2">
-        <v>7</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="C8" s="2">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.89</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="I8" s="3">
+    </row>
+    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="E12" s="3"/>
+      <c r="F12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H12" s="5">
+        <v>17.7</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>21.3</v>
+      </c>
+      <c r="D13" s="6">
         <v>0.92</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="E13" s="3"/>
+      <c r="F13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="H13" s="5">
+        <v>21.3</v>
+      </c>
+      <c r="I13" s="6">
         <v>0.92</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="C10" s="2">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H10" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C11" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="H11" s="2">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>11.9</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="2">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2">
-        <v>11.9</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0.93</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="F3:I12">
-    <sortCondition ref="G2"/>
+  <sortState ref="F4:I13">
+    <sortCondition ref="G4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5E0F95-1B47-E14A-93A2-C7B06914069C}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.82</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>7.7</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="5">
+        <v>6</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="H8" s="5">
+        <v>7</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>7.7</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H11" s="5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C12" s="5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="H12" s="5">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>11.9</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5">
+        <v>3</v>
+      </c>
+      <c r="H13" s="5">
+        <v>11.9</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/get_tts/tts_per_rf/tts_per_rf_figs/Comparison_Table.xlsx
+++ b/get_tts/tts_per_rf/tts_per_rf_figs/Comparison_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/scdrive2/TTS_2020/get_tts/tts_per_rf/tts_per_rf_figs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9C890C-60C9-684A-BC8C-AFA96E5DF14F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB21237A-F5F2-964F-B229-C250013E8B69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="22940" windowHeight="14260" xr2:uid="{A3DC752E-61BA-FC41-BD95-3822EA5ED517}"/>
   </bookViews>
@@ -491,20 +491,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E466F8-008E-B84B-9055-2149322C7832}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -519,7 +519,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -546,7 +546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -561,7 +561,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="5">
         <v>1.1000000000000001</v>
@@ -573,7 +573,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -588,7 +588,7 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5" s="5">
         <v>1.3</v>
@@ -600,7 +600,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -615,7 +615,7 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="5">
         <v>2.6</v>
@@ -627,7 +627,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -642,7 +642,7 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="5">
         <v>2.8</v>
@@ -654,7 +654,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -669,7 +669,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G8" s="5">
         <v>3.1</v>
@@ -681,7 +681,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -696,7 +696,7 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="5">
         <v>3.6</v>
@@ -708,7 +708,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -723,19 +723,19 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10" s="5">
         <v>3.8</v>
       </c>
       <c r="H10" s="5">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="I10" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -750,19 +750,19 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="5">
         <v>3.8</v>
       </c>
       <c r="H11" s="5">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="I11" s="6">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -777,7 +777,7 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="5">
         <v>4.5999999999999996</v>
@@ -789,7 +789,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -815,6 +815,7 @@
       <c r="I13" s="6">
         <v>0.92</v>
       </c>
+      <c r="J13" s="3"/>
     </row>
   </sheetData>
   <sortState ref="F4:I13">
@@ -829,7 +830,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/get_tts/tts_per_rf/tts_per_rf_figs/Comparison_Table.xlsx
+++ b/get_tts/tts_per_rf/tts_per_rf_figs/Comparison_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/scdrive2/TTS_2020/get_tts/tts_per_rf/tts_per_rf_figs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB21237A-F5F2-964F-B229-C250013E8B69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1D0BB5-938A-714F-B04F-B46FFFAC70DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="22940" windowHeight="14260" xr2:uid="{A3DC752E-61BA-FC41-BD95-3822EA5ED517}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
   <si>
     <t xml:space="preserve">Flight </t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>TROPOSPHERE LIFETIME</t>
+  </si>
+  <si>
+    <t># UT Samples</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -158,11 +161,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -177,6 +206,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,35 +544,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E466F8-008E-B84B-9055-2149322C7832}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -532,21 +591,27 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="K3" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -559,21 +624,27 @@
       <c r="D4" s="6">
         <v>0.72</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="9">
+        <v>96</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>3.9</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="K4" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -586,21 +657,27 @@
       <c r="D5" s="6">
         <v>0.69</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="9">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>1.3</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="K5" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -613,21 +690,27 @@
       <c r="D6" s="6">
         <v>0.8</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="9">
+        <v>44</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>2.6</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="K6" s="9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -640,21 +723,27 @@
       <c r="D7" s="6">
         <v>0.87</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="9">
+        <v>48</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>2.8</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>10.3</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="K7" s="9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -667,21 +756,27 @@
       <c r="D8" s="6">
         <v>0.89</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="9">
+        <v>48</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>3.1</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>11.9</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="K8" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -694,21 +789,27 @@
       <c r="D9" s="6">
         <v>0.88</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="9">
+        <v>75</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>3.6</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>13.1</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="K9" s="9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -721,21 +822,27 @@
       <c r="D10" s="6">
         <v>0.9</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="9">
+        <v>54</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>3.8</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>14</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="K10" s="9">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -748,21 +855,27 @@
       <c r="D11" s="6">
         <v>0.87</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="9">
+        <v>86</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>3.8</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>14.2</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="K11" s="9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -775,21 +888,27 @@
       <c r="D12" s="6">
         <v>0.92</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="9">
+        <v>128</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>17.7</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="K12" s="9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -802,24 +921,29 @@
       <c r="D13" s="6">
         <v>0.92</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="9">
+        <v>47</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <v>5.6</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
         <v>21.3</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <v>0.92</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="K13" s="9">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="F4:I13">
-    <sortCondition ref="G4"/>
+  <sortState ref="G4:J13">
+    <sortCondition ref="H4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -827,35 +951,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5E0F95-1B47-E14A-93A2-C7B06914069C}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -865,24 +995,30 @@
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="K3" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -892,24 +1028,30 @@
       <c r="C4" s="5">
         <v>5.9</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="14">
         <v>0.78</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="9">
+        <v>96</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="15">
         <v>0.5</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>2.1</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="K4" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -919,24 +1061,30 @@
       <c r="C5" s="5">
         <v>2.1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="14">
         <v>0.68</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="9">
+        <v>39</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="15">
         <v>0.8</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>2.8</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="K5" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -946,24 +1094,30 @@
       <c r="C6" s="5">
         <v>2.8</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="14">
         <v>0.82</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="9">
+        <v>44</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="15">
         <v>1.5</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>5.9</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="K6" s="9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -973,24 +1127,30 @@
       <c r="C7" s="5">
         <v>7.7</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="14">
         <v>0.92</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="9">
+        <v>48</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="15">
         <v>1.5</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>6</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="K7" s="9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1000,24 +1160,30 @@
       <c r="C8" s="5">
         <v>6</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="14">
         <v>0.91</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="9">
+        <v>48</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="15">
         <v>1.8</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>7</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="K8" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1027,24 +1193,30 @@
       <c r="C9" s="5">
         <v>7</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="14">
         <v>0.89</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="9">
+        <v>75</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="15">
         <v>2</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>7.7</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="K9" s="9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1054,24 +1226,30 @@
       <c r="C10" s="5">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="14">
         <v>0.92</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="9">
+        <v>54</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="15">
         <v>2</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="K10" s="9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1081,24 +1259,30 @@
       <c r="C11" s="5">
         <v>10.199999999999999</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="14">
         <v>0.9</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="9">
+        <v>86</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="K11" s="9">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1108,24 +1292,30 @@
       <c r="C12" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="14">
         <v>0.93</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="9">
+        <v>128</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="15">
         <v>2.8</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>10.199999999999999</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="K12" s="9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1135,21 +1325,27 @@
       <c r="C13" s="5">
         <v>11.9</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="14">
         <v>0.93</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="9">
+        <v>47</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="15">
         <v>3</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
         <v>11.9</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <v>0.93</v>
+      </c>
+      <c r="K13" s="9">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/get_tts/tts_per_rf/tts_per_rf_figs/Comparison_Table.xlsx
+++ b/get_tts/tts_per_rf/tts_per_rf_figs/Comparison_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/scdrive2/TTS_2020/get_tts/tts_per_rf/tts_per_rf_figs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1D0BB5-938A-714F-B04F-B46FFFAC70DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361B3CD1-F524-6E4E-AD35-2BD5A8986EDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="22940" windowHeight="14260" xr2:uid="{A3DC752E-61BA-FC41-BD95-3822EA5ED517}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
   <si>
     <t xml:space="preserve">Flight </t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t># UT Samples</t>
+  </si>
+  <si>
+    <t>RF15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># UT Samples TOGA </t>
+  </si>
+  <si>
+    <t># UT Samples AWAS</t>
   </si>
 </sst>
 </file>
@@ -544,24 +553,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E466F8-008E-B84B-9055-2149322C7832}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -569,16 +578,17 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -592,26 +602,29 @@
         <v>3</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -627,24 +640,27 @@
       <c r="E4" s="9">
         <v>96</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="9">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>3.9</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <v>0.69</v>
       </c>
-      <c r="K4" s="9">
+      <c r="L4" s="9">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -660,24 +676,27 @@
       <c r="E5" s="9">
         <v>39</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="9">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>1.3</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
         <v>0.8</v>
       </c>
-      <c r="K5" s="9">
+      <c r="L5" s="9">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -693,24 +712,27 @@
       <c r="E6" s="9">
         <v>44</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="9">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>2.6</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>9.8000000000000007</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <v>0.72</v>
       </c>
-      <c r="K6" s="9">
+      <c r="L6" s="9">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -726,24 +748,27 @@
       <c r="E7" s="9">
         <v>48</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="9">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>2.8</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <v>10.3</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <v>0.89</v>
       </c>
-      <c r="K7" s="9">
+      <c r="L7" s="9">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -759,24 +784,27 @@
       <c r="E8" s="9">
         <v>48</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="9">
         <v>9</v>
       </c>
-      <c r="H8" s="5">
+      <c r="G8" s="3"/>
+      <c r="H8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="5">
         <v>3.1</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <v>11.9</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="6">
         <v>0.88</v>
       </c>
-      <c r="K8" s="9">
+      <c r="L8" s="9">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -792,24 +820,27 @@
       <c r="E9" s="9">
         <v>75</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="9">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>3.6</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>13.1</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <v>0.87</v>
       </c>
-      <c r="K9" s="9">
+      <c r="L9" s="9">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -825,24 +856,27 @@
       <c r="E10" s="9">
         <v>54</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="9">
         <v>12</v>
       </c>
-      <c r="H10" s="5">
+      <c r="G10" s="3"/>
+      <c r="H10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="5">
         <v>3.8</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>14</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="6">
         <v>0.92</v>
       </c>
-      <c r="K10" s="9">
+      <c r="L10" s="9">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -858,24 +892,27 @@
       <c r="E11" s="9">
         <v>86</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="9">
+        <v>27</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>3.8</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5">
         <v>14.2</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="6">
         <v>0.9</v>
       </c>
-      <c r="K11" s="9">
+      <c r="L11" s="9">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -891,24 +928,27 @@
       <c r="E12" s="9">
         <v>128</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="9">
+        <v>40</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <v>17.7</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12" s="6">
         <v>0.87</v>
       </c>
-      <c r="K12" s="9">
+      <c r="L12" s="9">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -924,26 +964,56 @@
       <c r="E13" s="9">
         <v>47</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4" t="s">
+      <c r="F13" s="9">
+        <v>9</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
         <v>5.6</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J13" s="5">
         <v>21.3</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="6">
         <v>0.92</v>
       </c>
-      <c r="K13" s="9">
+      <c r="L13" s="9">
         <v>47</v>
       </c>
     </row>
+    <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5">
+        <v>5.3</v>
+      </c>
+      <c r="C14" s="5">
+        <v>19.8</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="E14" s="9">
+        <v>11</v>
+      </c>
+      <c r="F14" s="9">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="9"/>
+    </row>
   </sheetData>
-  <sortState ref="G4:J13">
-    <sortCondition ref="H4"/>
+  <sortState ref="H4:K13">
+    <sortCondition ref="I4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
